--- a/covid19-germany-deaths.xlsx
+++ b/covid19-germany-deaths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983B1AF4-A7B7-4752-A134-57C855837C29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B9E62E-A362-4E1D-A415-952B4FEB0F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F4FB2F62-CFC1-4DC5-8D42-46D11A5F56B5}"/>
   </bookViews>
@@ -1380,11 +1380,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DA2EDA-4407-4D46-87C7-4BDF0C20D4BE}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3736,12 +3734,6 @@
       </c>
       <c r="K78" s="1" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F79">
-        <f>MEDIAN(F2:F78)</f>
-        <v>84</v>
       </c>
     </row>
   </sheetData>
